--- a/数据/大屏移动端/大屏线稿/太平通.xlsx
+++ b/数据/大屏移动端/大屏线稿/太平通.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiaming WANG\Desktop\TPFS\大屏草稿\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiaming WANG\Documents\GitHub\itaiping\数据\大屏移动端\大屏线稿\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9107D615-7930-4BFB-A83A-645E3E264BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50C1064-2E9A-4D63-9808-43CC3D3BFD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1032,43 +1032,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1600</c:v>
+                  <c:v>1493</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1320</c:v>
+                  <c:v>1337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1288</c:v>
+                  <c:v>1385</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1801</c:v>
+                  <c:v>1921</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1846</c:v>
+                  <c:v>1168</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1006</c:v>
+                  <c:v>1797</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1834</c:v>
+                  <c:v>1475</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1980</c:v>
+                  <c:v>1566</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1067</c:v>
+                  <c:v>1577</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1380</c:v>
+                  <c:v>1296</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1379</c:v>
+                  <c:v>1082</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1074</c:v>
+                  <c:v>1933</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1422</c:v>
+                  <c:v>1426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1300,43 +1300,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1732</c:v>
+                  <c:v>1529</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1947</c:v>
+                  <c:v>1198</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1437</c:v>
+                  <c:v>1165</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1255</c:v>
+                  <c:v>1073</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1587</c:v>
+                  <c:v>1175</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1570</c:v>
+                  <c:v>1812</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1992</c:v>
+                  <c:v>1350</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1449</c:v>
+                  <c:v>1537</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1165</c:v>
+                  <c:v>1135</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1853</c:v>
+                  <c:v>1303</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1897</c:v>
+                  <c:v>1404</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1942</c:v>
+                  <c:v>1405</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1966</c:v>
+                  <c:v>1404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1568,43 +1568,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1435</c:v>
+                  <c:v>1290</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1739</c:v>
+                  <c:v>1357</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1823</c:v>
+                  <c:v>1107</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1694</c:v>
+                  <c:v>1186</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1444</c:v>
+                  <c:v>1958</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1244</c:v>
+                  <c:v>1104</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1031</c:v>
+                  <c:v>1877</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1648</c:v>
+                  <c:v>1223</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1428</c:v>
+                  <c:v>1939</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1098</c:v>
+                  <c:v>1818</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1699</c:v>
+                  <c:v>1688</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1883</c:v>
+                  <c:v>1763</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1173</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1836,43 +1836,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1080</c:v>
+                  <c:v>1429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1403</c:v>
+                  <c:v>1412</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1891</c:v>
+                  <c:v>1537</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1788</c:v>
+                  <c:v>1178</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1793</c:v>
+                  <c:v>1758</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1471</c:v>
+                  <c:v>1498</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1828</c:v>
+                  <c:v>1118</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1342</c:v>
+                  <c:v>1725</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1756</c:v>
+                  <c:v>1537</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1182</c:v>
+                  <c:v>1784</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1240</c:v>
+                  <c:v>1033</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1412</c:v>
+                  <c:v>1904</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1566</c:v>
+                  <c:v>1609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2104,43 +2104,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1985</c:v>
+                  <c:v>1383</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1207</c:v>
+                  <c:v>1905</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1754</c:v>
+                  <c:v>1572</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1503</c:v>
+                  <c:v>1075</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1578</c:v>
+                  <c:v>1102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1426</c:v>
+                  <c:v>1215</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1705</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1367</c:v>
+                  <c:v>1691</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1860</c:v>
+                  <c:v>1114</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1973</c:v>
+                  <c:v>1732</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1880</c:v>
+                  <c:v>1903</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1728</c:v>
+                  <c:v>1643</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1817</c:v>
+                  <c:v>1037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15734,21 +15734,21 @@
       </c>
       <c r="B1">
         <f ca="1">ROUND(1000+1000*RAND(),0)</f>
-        <v>1600</v>
+        <v>1493</v>
       </c>
       <c r="D1" s="1">
         <v>44562</v>
       </c>
       <c r="E1">
         <f ca="1">ROUND(1000+1000*RAND(),0)</f>
-        <v>1732</v>
+        <v>1529</v>
       </c>
       <c r="G1" s="1">
         <v>44562</v>
       </c>
       <c r="H1">
         <f ca="1">ROUND(1000+1000*RAND(),0)</f>
-        <v>1435</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -15757,21 +15757,21 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B13" ca="1" si="0">ROUND(1000+1000*RAND(),0)</f>
-        <v>1320</v>
+        <v>1337</v>
       </c>
       <c r="D2" s="1">
         <v>44593</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E13" ca="1" si="1">ROUND(1000+1000*RAND(),0)</f>
-        <v>1947</v>
+        <v>1198</v>
       </c>
       <c r="G2" s="1">
         <v>44593</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H13" ca="1" si="2">ROUND(1000+1000*RAND(),0)</f>
-        <v>1739</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -15780,21 +15780,21 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>1288</v>
+        <v>1385</v>
       </c>
       <c r="D3" s="1">
         <v>44621</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="1"/>
-        <v>1437</v>
+        <v>1165</v>
       </c>
       <c r="G3" s="1">
         <v>44621</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="2"/>
-        <v>1823</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -15803,21 +15803,21 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>1801</v>
+        <v>1921</v>
       </c>
       <c r="D4" s="1">
         <v>44652</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>1255</v>
+        <v>1073</v>
       </c>
       <c r="G4" s="1">
         <v>44652</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="2"/>
-        <v>1694</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -15826,21 +15826,21 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>1846</v>
+        <v>1168</v>
       </c>
       <c r="D5" s="1">
         <v>44682</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>1587</v>
+        <v>1175</v>
       </c>
       <c r="G5" s="1">
         <v>44682</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="2"/>
-        <v>1444</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -15849,21 +15849,21 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>1006</v>
+        <v>1797</v>
       </c>
       <c r="D6" s="1">
         <v>44713</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>1570</v>
+        <v>1812</v>
       </c>
       <c r="G6" s="1">
         <v>44713</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="2"/>
-        <v>1244</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -15872,21 +15872,21 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>1834</v>
+        <v>1475</v>
       </c>
       <c r="D7" s="1">
         <v>44743</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>1992</v>
+        <v>1350</v>
       </c>
       <c r="G7" s="1">
         <v>44743</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="2"/>
-        <v>1031</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -15895,21 +15895,21 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>1980</v>
+        <v>1566</v>
       </c>
       <c r="D8" s="1">
         <v>44774</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>1449</v>
+        <v>1537</v>
       </c>
       <c r="G8" s="1">
         <v>44774</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="2"/>
-        <v>1648</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -15918,21 +15918,21 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>1067</v>
+        <v>1577</v>
       </c>
       <c r="D9" s="1">
         <v>44805</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>1165</v>
+        <v>1135</v>
       </c>
       <c r="G9" s="1">
         <v>44805</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
-        <v>1428</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -15941,21 +15941,21 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>1380</v>
+        <v>1296</v>
       </c>
       <c r="D10" s="1">
         <v>44835</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
-        <v>1853</v>
+        <v>1303</v>
       </c>
       <c r="G10" s="1">
         <v>44835</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="2"/>
-        <v>1098</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -15964,21 +15964,21 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>1379</v>
+        <v>1082</v>
       </c>
       <c r="D11" s="1">
         <v>44866</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="1"/>
-        <v>1897</v>
+        <v>1404</v>
       </c>
       <c r="G11" s="1">
         <v>44866</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="2"/>
-        <v>1699</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -15987,21 +15987,21 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>1074</v>
+        <v>1933</v>
       </c>
       <c r="D12" s="1">
         <v>44896</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="1"/>
-        <v>1942</v>
+        <v>1405</v>
       </c>
       <c r="G12" s="1">
         <v>44896</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="2"/>
-        <v>1883</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -16010,21 +16010,21 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>1422</v>
+        <v>1426</v>
       </c>
       <c r="D13" s="1">
         <v>44927</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="1"/>
-        <v>1966</v>
+        <v>1404</v>
       </c>
       <c r="G13" s="1">
         <v>44927</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="2"/>
-        <v>1173</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -16033,14 +16033,14 @@
       </c>
       <c r="C17">
         <f ca="1">ROUND(1000+1000*RAND(),0)</f>
-        <v>1080</v>
+        <v>1429</v>
       </c>
       <c r="E17" s="1">
         <v>44562</v>
       </c>
       <c r="F17">
         <f ca="1">ROUND(1000+1000*RAND(),0)</f>
-        <v>1985</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -16049,14 +16049,14 @@
       </c>
       <c r="C18">
         <f t="shared" ref="C18:C29" ca="1" si="3">ROUND(1000+1000*RAND(),0)</f>
-        <v>1403</v>
+        <v>1412</v>
       </c>
       <c r="E18" s="1">
         <v>44593</v>
       </c>
       <c r="F18">
         <f t="shared" ref="F18:F29" ca="1" si="4">ROUND(1000+1000*RAND(),0)</f>
-        <v>1207</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -16065,14 +16065,14 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="3"/>
-        <v>1891</v>
+        <v>1537</v>
       </c>
       <c r="E19" s="1">
         <v>44621</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="4"/>
-        <v>1754</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -16081,14 +16081,14 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="3"/>
-        <v>1788</v>
+        <v>1178</v>
       </c>
       <c r="E20" s="1">
         <v>44652</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="4"/>
-        <v>1503</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -16097,14 +16097,14 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="3"/>
-        <v>1793</v>
+        <v>1758</v>
       </c>
       <c r="E21" s="1">
         <v>44682</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="4"/>
-        <v>1578</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -16113,14 +16113,14 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="3"/>
-        <v>1471</v>
+        <v>1498</v>
       </c>
       <c r="E22" s="1">
         <v>44713</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="4"/>
-        <v>1426</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -16129,14 +16129,14 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="3"/>
-        <v>1828</v>
+        <v>1118</v>
       </c>
       <c r="E23" s="1">
         <v>44743</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="4"/>
-        <v>1705</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -16145,14 +16145,14 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="3"/>
-        <v>1342</v>
+        <v>1725</v>
       </c>
       <c r="E24" s="1">
         <v>44774</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="4"/>
-        <v>1367</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -16161,14 +16161,14 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="3"/>
-        <v>1756</v>
+        <v>1537</v>
       </c>
       <c r="E25" s="1">
         <v>44805</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="4"/>
-        <v>1860</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -16177,14 +16177,14 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="3"/>
-        <v>1182</v>
+        <v>1784</v>
       </c>
       <c r="E26" s="1">
         <v>44835</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="4"/>
-        <v>1973</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="27" spans="2:6">
@@ -16193,14 +16193,14 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="3"/>
-        <v>1240</v>
+        <v>1033</v>
       </c>
       <c r="E27" s="1">
         <v>44866</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="4"/>
-        <v>1880</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="28" spans="2:6">
@@ -16209,14 +16209,14 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="3"/>
-        <v>1412</v>
+        <v>1904</v>
       </c>
       <c r="E28" s="1">
         <v>44896</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="4"/>
-        <v>1728</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="29" spans="2:6">
@@ -16225,14 +16225,14 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="3"/>
-        <v>1566</v>
+        <v>1609</v>
       </c>
       <c r="E29" s="1">
         <v>44927</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="4"/>
-        <v>1817</v>
+        <v>1037</v>
       </c>
     </row>
   </sheetData>

--- a/数据/大屏移动端/大屏线稿/太平通.xlsx
+++ b/数据/大屏移动端/大屏线稿/太平通.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiaming WANG\Documents\GitHub\itaiping\数据\大屏移动端\大屏线稿\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50C1064-2E9A-4D63-9808-43CC3D3BFD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF38A08-7CEB-4996-9008-4D5225548B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1032,43 +1032,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1493</c:v>
+                  <c:v>1935</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1337</c:v>
+                  <c:v>1989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1385</c:v>
+                  <c:v>1148</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1921</c:v>
+                  <c:v>1154</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1168</c:v>
+                  <c:v>1641</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1797</c:v>
+                  <c:v>1743</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1475</c:v>
+                  <c:v>1631</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1566</c:v>
+                  <c:v>1978</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1577</c:v>
+                  <c:v>1784</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1296</c:v>
+                  <c:v>1667</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1082</c:v>
+                  <c:v>1235</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1933</c:v>
+                  <c:v>1708</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1426</c:v>
+                  <c:v>1530</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1300,43 +1300,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1529</c:v>
+                  <c:v>1530</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1198</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1165</c:v>
+                  <c:v>1667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1073</c:v>
+                  <c:v>1404</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1175</c:v>
+                  <c:v>1534</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1812</c:v>
+                  <c:v>1738</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1350</c:v>
+                  <c:v>1780</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1537</c:v>
+                  <c:v>1022</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1135</c:v>
+                  <c:v>1587</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1303</c:v>
+                  <c:v>1204</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1404</c:v>
+                  <c:v>1087</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1405</c:v>
+                  <c:v>1409</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1404</c:v>
+                  <c:v>1486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1568,43 +1568,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1290</c:v>
+                  <c:v>1821</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1357</c:v>
+                  <c:v>1033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1107</c:v>
+                  <c:v>1459</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1186</c:v>
+                  <c:v>1215</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1958</c:v>
+                  <c:v>1930</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1104</c:v>
+                  <c:v>1843</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1877</c:v>
+                  <c:v>1946</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1223</c:v>
+                  <c:v>1912</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1939</c:v>
+                  <c:v>1636</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1818</c:v>
+                  <c:v>1850</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1688</c:v>
+                  <c:v>1668</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1763</c:v>
+                  <c:v>1669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1637</c:v>
+                  <c:v>1128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1836,43 +1836,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1429</c:v>
+                  <c:v>1828</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1412</c:v>
+                  <c:v>1155</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1537</c:v>
+                  <c:v>1192</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1178</c:v>
+                  <c:v>1060</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1758</c:v>
+                  <c:v>1324</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1498</c:v>
+                  <c:v>1780</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1118</c:v>
+                  <c:v>1796</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1725</c:v>
+                  <c:v>1772</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1537</c:v>
+                  <c:v>1050</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1784</c:v>
+                  <c:v>1426</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1033</c:v>
+                  <c:v>1720</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1904</c:v>
+                  <c:v>1555</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1609</c:v>
+                  <c:v>1817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2104,43 +2104,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1383</c:v>
+                  <c:v>1151</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1905</c:v>
+                  <c:v>1403</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1572</c:v>
+                  <c:v>1202</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1075</c:v>
+                  <c:v>1019</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1102</c:v>
+                  <c:v>1560</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1215</c:v>
+                  <c:v>1486</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1020</c:v>
+                  <c:v>1221</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1691</c:v>
+                  <c:v>1955</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1114</c:v>
+                  <c:v>1970</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1732</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1903</c:v>
+                  <c:v>1830</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1643</c:v>
+                  <c:v>1021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1037</c:v>
+                  <c:v>1598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14938,7 +14938,7 @@
   <dimension ref="B2:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+      <selection activeCell="B2" sqref="B2:S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -15734,21 +15734,21 @@
       </c>
       <c r="B1">
         <f ca="1">ROUND(1000+1000*RAND(),0)</f>
-        <v>1493</v>
+        <v>1935</v>
       </c>
       <c r="D1" s="1">
         <v>44562</v>
       </c>
       <c r="E1">
         <f ca="1">ROUND(1000+1000*RAND(),0)</f>
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="G1" s="1">
         <v>44562</v>
       </c>
       <c r="H1">
         <f ca="1">ROUND(1000+1000*RAND(),0)</f>
-        <v>1290</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -15757,21 +15757,21 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B13" ca="1" si="0">ROUND(1000+1000*RAND(),0)</f>
-        <v>1337</v>
+        <v>1989</v>
       </c>
       <c r="D2" s="1">
         <v>44593</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E13" ca="1" si="1">ROUND(1000+1000*RAND(),0)</f>
-        <v>1198</v>
+        <v>1480</v>
       </c>
       <c r="G2" s="1">
         <v>44593</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H13" ca="1" si="2">ROUND(1000+1000*RAND(),0)</f>
-        <v>1357</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -15780,21 +15780,21 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>1385</v>
+        <v>1148</v>
       </c>
       <c r="D3" s="1">
         <v>44621</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="1"/>
-        <v>1165</v>
+        <v>1667</v>
       </c>
       <c r="G3" s="1">
         <v>44621</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="2"/>
-        <v>1107</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -15803,21 +15803,21 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>1921</v>
+        <v>1154</v>
       </c>
       <c r="D4" s="1">
         <v>44652</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>1073</v>
+        <v>1404</v>
       </c>
       <c r="G4" s="1">
         <v>44652</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="2"/>
-        <v>1186</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -15826,21 +15826,21 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>1168</v>
+        <v>1641</v>
       </c>
       <c r="D5" s="1">
         <v>44682</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>1175</v>
+        <v>1534</v>
       </c>
       <c r="G5" s="1">
         <v>44682</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="2"/>
-        <v>1958</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -15849,21 +15849,21 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>1797</v>
+        <v>1743</v>
       </c>
       <c r="D6" s="1">
         <v>44713</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>1812</v>
+        <v>1738</v>
       </c>
       <c r="G6" s="1">
         <v>44713</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="2"/>
-        <v>1104</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -15872,21 +15872,21 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>1475</v>
+        <v>1631</v>
       </c>
       <c r="D7" s="1">
         <v>44743</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>1350</v>
+        <v>1780</v>
       </c>
       <c r="G7" s="1">
         <v>44743</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="2"/>
-        <v>1877</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -15895,21 +15895,21 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>1566</v>
+        <v>1978</v>
       </c>
       <c r="D8" s="1">
         <v>44774</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>1537</v>
+        <v>1022</v>
       </c>
       <c r="G8" s="1">
         <v>44774</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="2"/>
-        <v>1223</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -15918,21 +15918,21 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>1577</v>
+        <v>1784</v>
       </c>
       <c r="D9" s="1">
         <v>44805</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>1135</v>
+        <v>1587</v>
       </c>
       <c r="G9" s="1">
         <v>44805</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
-        <v>1939</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -15941,21 +15941,21 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>1296</v>
+        <v>1667</v>
       </c>
       <c r="D10" s="1">
         <v>44835</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
-        <v>1303</v>
+        <v>1204</v>
       </c>
       <c r="G10" s="1">
         <v>44835</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="2"/>
-        <v>1818</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -15964,21 +15964,21 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>1082</v>
+        <v>1235</v>
       </c>
       <c r="D11" s="1">
         <v>44866</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="1"/>
-        <v>1404</v>
+        <v>1087</v>
       </c>
       <c r="G11" s="1">
         <v>44866</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="2"/>
-        <v>1688</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -15987,21 +15987,21 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>1933</v>
+        <v>1708</v>
       </c>
       <c r="D12" s="1">
         <v>44896</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="1"/>
-        <v>1405</v>
+        <v>1409</v>
       </c>
       <c r="G12" s="1">
         <v>44896</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="2"/>
-        <v>1763</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -16010,21 +16010,21 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>1426</v>
+        <v>1530</v>
       </c>
       <c r="D13" s="1">
         <v>44927</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="1"/>
-        <v>1404</v>
+        <v>1486</v>
       </c>
       <c r="G13" s="1">
         <v>44927</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="2"/>
-        <v>1637</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -16033,14 +16033,14 @@
       </c>
       <c r="C17">
         <f ca="1">ROUND(1000+1000*RAND(),0)</f>
-        <v>1429</v>
+        <v>1828</v>
       </c>
       <c r="E17" s="1">
         <v>44562</v>
       </c>
       <c r="F17">
         <f ca="1">ROUND(1000+1000*RAND(),0)</f>
-        <v>1383</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -16049,14 +16049,14 @@
       </c>
       <c r="C18">
         <f t="shared" ref="C18:C29" ca="1" si="3">ROUND(1000+1000*RAND(),0)</f>
-        <v>1412</v>
+        <v>1155</v>
       </c>
       <c r="E18" s="1">
         <v>44593</v>
       </c>
       <c r="F18">
         <f t="shared" ref="F18:F29" ca="1" si="4">ROUND(1000+1000*RAND(),0)</f>
-        <v>1905</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -16065,14 +16065,14 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="3"/>
-        <v>1537</v>
+        <v>1192</v>
       </c>
       <c r="E19" s="1">
         <v>44621</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="4"/>
-        <v>1572</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -16081,14 +16081,14 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="3"/>
-        <v>1178</v>
+        <v>1060</v>
       </c>
       <c r="E20" s="1">
         <v>44652</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="4"/>
-        <v>1075</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -16097,14 +16097,14 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="3"/>
-        <v>1758</v>
+        <v>1324</v>
       </c>
       <c r="E21" s="1">
         <v>44682</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="4"/>
-        <v>1102</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -16113,14 +16113,14 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="3"/>
-        <v>1498</v>
+        <v>1780</v>
       </c>
       <c r="E22" s="1">
         <v>44713</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="4"/>
-        <v>1215</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -16129,14 +16129,14 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="3"/>
-        <v>1118</v>
+        <v>1796</v>
       </c>
       <c r="E23" s="1">
         <v>44743</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="4"/>
-        <v>1020</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -16145,14 +16145,14 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="3"/>
-        <v>1725</v>
+        <v>1772</v>
       </c>
       <c r="E24" s="1">
         <v>44774</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="4"/>
-        <v>1691</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -16161,14 +16161,14 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="3"/>
-        <v>1537</v>
+        <v>1050</v>
       </c>
       <c r="E25" s="1">
         <v>44805</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="4"/>
-        <v>1114</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -16177,14 +16177,14 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="3"/>
-        <v>1784</v>
+        <v>1426</v>
       </c>
       <c r="E26" s="1">
         <v>44835</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="4"/>
-        <v>1732</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="27" spans="2:6">
@@ -16193,14 +16193,14 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="3"/>
-        <v>1033</v>
+        <v>1720</v>
       </c>
       <c r="E27" s="1">
         <v>44866</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="4"/>
-        <v>1903</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="28" spans="2:6">
@@ -16209,14 +16209,14 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="3"/>
-        <v>1904</v>
+        <v>1555</v>
       </c>
       <c r="E28" s="1">
         <v>44896</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="4"/>
-        <v>1643</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="29" spans="2:6">
@@ -16225,14 +16225,14 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="3"/>
-        <v>1609</v>
+        <v>1817</v>
       </c>
       <c r="E29" s="1">
         <v>44927</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="4"/>
-        <v>1037</v>
+        <v>1598</v>
       </c>
     </row>
   </sheetData>
